--- a/Current Patients/TeSt2/DataBases/Data/TeSt2_Anthropometrics_Source.xlsx
+++ b/Current Patients/TeSt2/DataBases/Data/TeSt2_Anthropometrics_Source.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USER\Robert\Documents\GitHub\KetoGator\Back End\Current Patients\TeSt2\DataBases\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USER\Robert\Documents\GitHub\KetoGator\Current Patients\TeSt2\DataBases\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFDCFD0-4393-482A-AAD8-C581C0C41F6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FA63CE-5E50-4771-9C0F-5260B47069D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Anthropometrics" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -108,22 +103,22 @@
     <t>KK-6/26/2020</t>
   </si>
   <si>
+    <t>RP-6/27/2020</t>
+  </si>
+  <si>
+    <t>KK-6/27/2020</t>
+  </si>
+  <si>
+    <t>Back to original CP</t>
+  </si>
+  <si>
+    <t>RP-6/28/2020</t>
+  </si>
+  <si>
+    <t>KK-6/28/2020</t>
+  </si>
+  <si>
     <t>Back to original SSF</t>
-  </si>
-  <si>
-    <t>RP-6/27/2020</t>
-  </si>
-  <si>
-    <t>KK-6/27/2020</t>
-  </si>
-  <si>
-    <t>RP-6/28/2020</t>
-  </si>
-  <si>
-    <t>KK-6/28/2020</t>
-  </si>
-  <si>
-    <t>Back to original CP</t>
   </si>
 </sst>
 </file>
@@ -453,7 +448,7 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -746,13 +741,13 @@
         <v>64.3</v>
       </c>
       <c r="S5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="U5" t="s">
         <v>29</v>
-      </c>
-      <c r="U5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.75">
@@ -811,7 +806,7 @@
         <v>31</v>
       </c>
       <c r="U6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Current Patients/TeSt2/DataBases/Data/TeSt2_Anthropometrics_Source.xlsx
+++ b/Current Patients/TeSt2/DataBases/Data/TeSt2_Anthropometrics_Source.xlsx
@@ -399,10 +399,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.75"/>
@@ -842,13 +842,13 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
         <v>14</v>
       </c>
       <c r="F7" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>1.1</v>
@@ -880,17 +880,79 @@
       <c r="P7" t="n">
         <v>1.1</v>
       </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr">
         <is>
           <t>RP-6/30/2020</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
           <t>hi</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7/1/2020</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>14</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>RP-7/1/2020</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>hello</t>
         </is>
       </c>
     </row>
